--- a/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
+++ b/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T19:12:46+00:00</t>
+    <t>2023-05-07T19:13:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
+++ b/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T19:13:00+00:00</t>
+    <t>2023-05-07T19:16:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
+++ b/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T19:16:02+00:00</t>
+    <t>2023-05-07T21:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
+++ b/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T21:08:14+00:00</t>
+    <t>2023-05-07T21:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
+++ b/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T21:39:12+00:00</t>
+    <t>2023-05-07T21:52:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
+++ b/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T21:52:36+00:00</t>
+    <t>2023-05-07T22:07:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
+++ b/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T22:07:44+00:00</t>
+    <t>2023-05-07T22:12:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 TC</t>
+    <t>HL7 PT TC</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
+++ b/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T22:12:24+00:00</t>
+    <t>2023-05-07T22:29:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
+++ b/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$67</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2906" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="457">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T22:29:01+00:00</t>
+    <t>2023-05-07T22:36:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -680,6 +680,13 @@
     <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
   </si>
   <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://spms.min-saude.pt/iop/identifiers/coverage"/&gt;
+  &lt;code value="NBU"/&gt;
+  &lt;display value="Número do Beneficiário na Entidade"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
     <t>CodeableConcept.coding</t>
   </si>
   <si>
@@ -689,22 +696,229 @@
     <t>C*E.1-8, C*E.10-22</t>
   </si>
   <si>
-    <t>Coverage.identifier:NBU.type.coding.id</t>
-  </si>
-  <si>
-    <t>Coverage.identifier.type.coding.id</t>
-  </si>
-  <si>
-    <t>Coverage.identifier:NBU.type.coding.extension</t>
-  </si>
-  <si>
-    <t>Coverage.identifier.type.coding.extension</t>
-  </si>
-  <si>
-    <t>Coverage.identifier:NBU.type.coding.system</t>
-  </si>
-  <si>
-    <t>Coverage.identifier.type.coding.system</t>
+    <t>Coverage.identifier:NBU.type.text</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>Coverage.identifier:NBU.system</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://spms.min-saude.pt/rnu/identifiers/nbu</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>Coverage.identifier:NBU.value</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/STU3/extension-rendered-value.html).</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>Coverage.identifier:NBU.period</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Coverage.identifier:NBU.assigner</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>Coverage.status</t>
+  </si>
+  <si>
+    <t>active | cancelled | draft | entered-in-error</t>
+  </si>
+  <si>
+    <t>The status of the resource instance.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains the code entered-in-error that marks the coverage as not currently valid.</t>
+  </si>
+  <si>
+    <t>A code specifying the state of the resource instance.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/fm-status</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Coverage.type</t>
+  </si>
+  <si>
+    <t>Designação da Entidade Responsável, enviar outros códigos se necessário, com o respetivo sistema de codificação [CÓDIGO (EFR) E DESIGNAÇÃO (EFR)]</t>
+  </si>
+  <si>
+    <t>The type of coverage: social program, medical plan, accident coverage (workers compensation, auto), group health or payment by an individual or organization.</t>
+  </si>
+  <si>
+    <t>The order of application of coverages is dependent on the types of coverage.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>The type of insurance: public health, worker compensation; private accident, auto, private health, etc.) or a direct payment by an individual or organization.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/coverage-type</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>IN1-15</t>
+  </si>
+  <si>
+    <t>Coverage.type.id</t>
+  </si>
+  <si>
+    <t>Coverage.type.extension</t>
+  </si>
+  <si>
+    <t>Coverage.type.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:code}
+</t>
+  </si>
+  <si>
+    <t>Coverage.type.coding:ExtendedHealthcare</t>
+  </si>
+  <si>
+    <t>ExtendedHealthcare</t>
+  </si>
+  <si>
+    <t>Coverage.type.coding:ExtendedHealthcare.id</t>
+  </si>
+  <si>
+    <t>Coverage.type.coding.id</t>
+  </si>
+  <si>
+    <t>Coverage.type.coding:ExtendedHealthcare.extension</t>
+  </si>
+  <si>
+    <t>Coverage.type.coding.extension</t>
+  </si>
+  <si>
+    <t>Coverage.type.coding:ExtendedHealthcare.system</t>
+  </si>
+  <si>
+    <t>Coverage.type.coding.system</t>
   </si>
   <si>
     <t>Identity of the terminology system</t>
@@ -719,6 +933,9 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/v3/ActCode</t>
+  </si>
+  <si>
     <t>Coding.system</t>
   </si>
   <si>
@@ -728,10 +945,10 @@
     <t>C*E.3</t>
   </si>
   <si>
-    <t>Coverage.identifier:NBU.type.coding.version</t>
-  </si>
-  <si>
-    <t>Coverage.identifier.type.coding.version</t>
+    <t>Coverage.type.coding:ExtendedHealthcare.version</t>
+  </si>
+  <si>
+    <t>Coverage.type.coding.version</t>
   </si>
   <si>
     <t>Version of the system - if relevant</t>
@@ -752,10 +969,10 @@
     <t>C*E.7</t>
   </si>
   <si>
-    <t>Coverage.identifier:NBU.type.coding.code</t>
-  </si>
-  <si>
-    <t>Coverage.identifier.type.coding.code</t>
+    <t>Coverage.type.coding:ExtendedHealthcare.code</t>
+  </si>
+  <si>
+    <t>Coverage.type.coding.code</t>
   </si>
   <si>
     <t>Symbol in syntax defined by the system</t>
@@ -767,6 +984,9 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
+    <t>EHCPOL</t>
+  </si>
+  <si>
     <t>Coding.code</t>
   </si>
   <si>
@@ -776,10 +996,10 @@
     <t>C*E.1</t>
   </si>
   <si>
-    <t>Coverage.identifier:NBU.type.coding.display</t>
-  </si>
-  <si>
-    <t>Coverage.identifier.type.coding.display</t>
+    <t>Coverage.type.coding:ExtendedHealthcare.display</t>
+  </si>
+  <si>
+    <t>Coverage.type.coding.display</t>
   </si>
   <si>
     <t>Representation defined by the system</t>
@@ -791,6 +1011,9 @@
     <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
+    <t>Extended healthcare</t>
+  </si>
+  <si>
     <t>Coding.display</t>
   </si>
   <si>
@@ -800,10 +1023,10 @@
     <t>C*E.2 - but note this is not well followed</t>
   </si>
   <si>
-    <t>Coverage.identifier:NBU.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Coverage.identifier.type.coding.userSelected</t>
+    <t>Coverage.type.coding:ExtendedHealthcare.userSelected</t>
+  </si>
+  <si>
+    <t>Coverage.type.coding.userSelected</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
@@ -829,264 +1052,6 @@
   </si>
   <si>
     <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>Coverage.identifier:NBU.type.text</t>
-  </si>
-  <si>
-    <t>Coverage.identifier.type.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>Coverage.identifier:NBU.system</t>
-  </si>
-  <si>
-    <t>Coverage.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://spms.min-saude.pt/iop/identifiers/coverage</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>Coverage.identifier:NBU.value</t>
-  </si>
-  <si>
-    <t>Coverage.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/STU3/extension-rendered-value.html).</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>Coverage.identifier:NBU.period</t>
-  </si>
-  <si>
-    <t>Coverage.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Coverage.identifier:NBU.assigner</t>
-  </si>
-  <si>
-    <t>Coverage.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>Coverage.status</t>
-  </si>
-  <si>
-    <t>active | cancelled | draft | entered-in-error</t>
-  </si>
-  <si>
-    <t>The status of the resource instance.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains the code entered-in-error that marks the coverage as not currently valid.</t>
-  </si>
-  <si>
-    <t>A code specifying the state of the resource instance.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/fm-status</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Coverage.type</t>
-  </si>
-  <si>
-    <t>Designação da Entidade Responsável, enviar outros códigos se necessário, com o respetivo sistema de codificação [CÓDIGO (EFR) E DESIGNAÇÃO (EFR)]</t>
-  </si>
-  <si>
-    <t>The type of coverage: social program, medical plan, accident coverage (workers compensation, auto), group health or payment by an individual or organization.</t>
-  </si>
-  <si>
-    <t>The order of application of coverages is dependent on the types of coverage.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>The type of insurance: public health, worker compensation; private accident, auto, private health, etc.) or a direct payment by an individual or organization.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/coverage-type</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>IN1-15</t>
-  </si>
-  <si>
-    <t>Coverage.type.id</t>
-  </si>
-  <si>
-    <t>Coverage.type.extension</t>
-  </si>
-  <si>
-    <t>Coverage.type.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:code}
-</t>
-  </si>
-  <si>
-    <t>Coverage.type.coding:ExtendedHealthcare</t>
-  </si>
-  <si>
-    <t>ExtendedHealthcare</t>
-  </si>
-  <si>
-    <t>Coverage.type.coding:ExtendedHealthcare.id</t>
-  </si>
-  <si>
-    <t>Coverage.type.coding.id</t>
-  </si>
-  <si>
-    <t>Coverage.type.coding:ExtendedHealthcare.extension</t>
-  </si>
-  <si>
-    <t>Coverage.type.coding.extension</t>
-  </si>
-  <si>
-    <t>Coverage.type.coding:ExtendedHealthcare.system</t>
-  </si>
-  <si>
-    <t>Coverage.type.coding.system</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/v3/ActCode</t>
-  </si>
-  <si>
-    <t>Coverage.type.coding:ExtendedHealthcare.version</t>
-  </si>
-  <si>
-    <t>Coverage.type.coding.version</t>
-  </si>
-  <si>
-    <t>Coverage.type.coding:ExtendedHealthcare.code</t>
-  </si>
-  <si>
-    <t>Coverage.type.coding.code</t>
-  </si>
-  <si>
-    <t>EHCPOL</t>
-  </si>
-  <si>
-    <t>Coverage.type.coding:ExtendedHealthcare.display</t>
-  </si>
-  <si>
-    <t>Coverage.type.coding.display</t>
-  </si>
-  <si>
-    <t>Extended healthcare</t>
-  </si>
-  <si>
-    <t>Coverage.type.coding:ExtendedHealthcare.userSelected</t>
-  </si>
-  <si>
-    <t>Coverage.type.coding.userSelected</t>
   </si>
   <si>
     <t>Coverage.type.text</t>
@@ -1781,7 +1746,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ74"/>
+  <dimension ref="A1:AQ67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1791,7 +1756,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="53.10546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.5546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="35.80859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.78515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -4184,7 +4149,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>82</v>
@@ -4221,7 +4186,7 @@
         <v>80</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>80</v>
@@ -4260,7 +4225,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4278,7 +4243,7 @@
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>80</v>
@@ -4287,7 +4252,7 @@
         <v>80</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>80</v>
@@ -4298,10 +4263,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4321,19 +4286,23 @@
         <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>169</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4381,7 +4350,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4399,7 +4368,7 @@
         <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>80</v>
@@ -4408,7 +4377,7 @@
         <v>80</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>80</v>
@@ -4419,21 +4388,21 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -4442,21 +4411,21 @@
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4465,10 +4434,10 @@
         <v>80</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>80</v>
@@ -4492,25 +4461,25 @@
         <v>80</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
@@ -4522,7 +4491,7 @@
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>173</v>
+        <v>234</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>80</v>
@@ -4531,7 +4500,7 @@
         <v>80</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>80</v>
@@ -4542,10 +4511,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4568,20 +4537,18 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>80</v>
       </c>
@@ -4593,7 +4560,7 @@
         <v>80</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>80</v>
@@ -4629,7 +4596,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4647,7 +4614,7 @@
         <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>80</v>
@@ -4656,7 +4623,7 @@
         <v>80</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>80</v>
@@ -4667,10 +4634,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4693,17 +4660,15 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -4752,7 +4717,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4770,7 +4735,7 @@
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>80</v>
@@ -4779,7 +4744,7 @@
         <v>80</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>80</v>
@@ -4790,10 +4755,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4816,18 +4781,18 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>108</v>
+        <v>255</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4836,7 +4801,7 @@
         <v>80</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>80</v>
@@ -4875,7 +4840,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -4893,7 +4858,7 @@
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -4902,7 +4867,7 @@
         <v>80</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>80</v>
@@ -4913,10 +4878,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4933,24 +4898,24 @@
         <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
       </c>
@@ -4974,13 +4939,13 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>80</v>
+        <v>266</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
@@ -4998,7 +4963,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5013,33 +4978,33 @@
         <v>80</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>252</v>
+        <v>80</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ26" t="s" s="2">
-        <v>80</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5062,19 +5027,17 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>255</v>
+        <v>193</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -5099,13 +5062,13 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
@@ -5123,7 +5086,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5141,30 +5104,30 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>261</v>
+        <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>80</v>
+        <v>277</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ27" t="s" s="2">
-        <v>80</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5184,23 +5147,19 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>169</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
+        <v>170</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5248,7 +5207,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5266,7 +5225,7 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>270</v>
+        <v>173</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
@@ -5275,7 +5234,7 @@
         <v>80</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>271</v>
+        <v>80</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>80</v>
@@ -5286,21 +5245,21 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -5309,21 +5268,21 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>274</v>
+        <v>176</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5332,10 +5291,10 @@
         <v>80</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>277</v>
+        <v>80</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>80</v>
@@ -5359,25 +5318,25 @@
         <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>279</v>
+        <v>179</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>80</v>
@@ -5389,7 +5348,7 @@
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>280</v>
+        <v>173</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
@@ -5398,7 +5357,7 @@
         <v>80</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>80</v>
@@ -5409,10 +5368,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5423,7 +5382,7 @@
         <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -5435,18 +5394,20 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>284</v>
+        <v>209</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>285</v>
+        <v>210</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5458,7 +5419,7 @@
         <v>80</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>80</v>
@@ -5482,25 +5443,23 @@
         <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>288</v>
+        <v>214</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
@@ -5512,7 +5471,7 @@
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>289</v>
+        <v>215</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
@@ -5521,7 +5480,7 @@
         <v>80</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>290</v>
+        <v>216</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>80</v>
@@ -5532,12 +5491,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5549,7 +5510,7 @@
         <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>80</v>
@@ -5558,16 +5519,20 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>293</v>
+        <v>208</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>294</v>
+        <v>209</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5615,13 +5580,13 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>296</v>
+        <v>214</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
@@ -5633,7 +5598,7 @@
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>297</v>
+        <v>215</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
@@ -5642,7 +5607,7 @@
         <v>80</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>298</v>
+        <v>216</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>80</v>
@@ -5653,10 +5618,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5676,20 +5641,18 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>301</v>
+        <v>169</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>302</v>
+        <v>170</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -5738,7 +5701,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>305</v>
+        <v>172</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5756,7 +5719,7 @@
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>306</v>
+        <v>173</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -5765,7 +5728,7 @@
         <v>80</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>80</v>
@@ -5776,42 +5739,42 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>309</v>
+        <v>176</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>310</v>
+        <v>177</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>311</v>
+        <v>151</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5837,37 +5800,37 @@
         <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>312</v>
+        <v>80</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>313</v>
+        <v>80</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>308</v>
+        <v>179</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
@@ -5876,13 +5839,13 @@
         <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -5894,15 +5857,15 @@
         <v>80</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>315</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5925,17 +5888,19 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O34" t="s" s="2">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -5945,7 +5910,7 @@
         <v>80</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>80</v>
+        <v>295</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>80</v>
@@ -5960,13 +5925,13 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>321</v>
+        <v>80</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>322</v>
+        <v>80</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -5984,7 +5949,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6002,30 +5967,30 @@
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>80</v>
+        <v>297</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>323</v>
+        <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>323</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6045,18 +6010,20 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>169</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>170</v>
+        <v>301</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6105,7 +6072,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>172</v>
+        <v>304</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6123,7 +6090,7 @@
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>173</v>
+        <v>305</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -6132,7 +6099,7 @@
         <v>80</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>80</v>
@@ -6143,21 +6110,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -6166,21 +6133,21 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>176</v>
+        <v>309</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6189,7 +6156,7 @@
         <v>80</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>80</v>
@@ -6216,25 +6183,25 @@
         <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>179</v>
+        <v>313</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
@@ -6246,7 +6213,7 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>173</v>
+        <v>314</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6255,7 +6222,7 @@
         <v>80</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>80</v>
@@ -6266,10 +6233,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6280,7 +6247,7 @@
         <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -6292,19 +6259,17 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>209</v>
+        <v>318</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>212</v>
+        <v>320</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6314,7 +6279,7 @@
         <v>80</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>80</v>
+        <v>321</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>80</v>
@@ -6341,23 +6306,25 @@
         <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AC37" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>213</v>
+        <v>322</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
@@ -6369,7 +6336,7 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>214</v>
+        <v>323</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6378,7 +6345,7 @@
         <v>80</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>215</v>
+        <v>324</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>80</v>
@@ -6389,14 +6356,12 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6408,7 +6373,7 @@
         <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>80</v>
@@ -6417,19 +6382,19 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>208</v>
+        <v>327</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>209</v>
+        <v>328</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>210</v>
+        <v>329</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>211</v>
+        <v>330</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>212</v>
+        <v>331</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6478,13 +6443,13 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>213</v>
+        <v>332</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>80</v>
@@ -6496,7 +6461,7 @@
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>214</v>
+        <v>333</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
@@ -6505,7 +6470,7 @@
         <v>80</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>215</v>
+        <v>334</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>80</v>
@@ -6516,10 +6481,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6539,19 +6504,23 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>169</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6599,7 +6568,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6617,7 +6586,7 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6626,7 +6595,7 @@
         <v>80</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>80</v>
@@ -6637,21 +6606,21 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6660,20 +6629,18 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>134</v>
+        <v>337</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>176</v>
+        <v>338</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6710,25 +6677,25 @@
         <v>80</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>179</v>
+        <v>336</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
@@ -6740,30 +6707,30 @@
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>80</v>
+        <v>343</v>
       </c>
       <c r="AQ40" t="s" s="2">
-        <v>80</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6786,20 +6753,16 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>102</v>
+        <v>345</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>222</v>
+        <v>346</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6808,7 +6771,7 @@
         <v>80</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>337</v>
+        <v>80</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>80</v>
@@ -6847,7 +6810,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>226</v>
+        <v>344</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -6865,30 +6828,30 @@
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>228</v>
+        <v>342</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>80</v>
+        <v>343</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>80</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6914,14 +6877,12 @@
         <v>169</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>231</v>
+        <v>349</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -6970,7 +6931,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>234</v>
+        <v>348</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -6988,30 +6949,30 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>236</v>
+        <v>342</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>80</v>
+        <v>343</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>80</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7019,7 +6980,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>89</v>
@@ -7034,18 +6995,16 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>108</v>
+        <v>352</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>239</v>
+        <v>353</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>240</v>
+        <v>354</v>
       </c>
       <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>241</v>
-      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
@@ -7054,7 +7013,7 @@
         <v>80</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>342</v>
+        <v>80</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>80</v>
@@ -7093,7 +7052,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>242</v>
+        <v>351</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7108,33 +7067,33 @@
         <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>244</v>
+        <v>342</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>80</v>
+        <v>343</v>
       </c>
       <c r="AQ43" t="s" s="2">
-        <v>80</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7154,20 +7113,20 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>247</v>
+        <v>357</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>248</v>
+        <v>358</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>249</v>
+        <v>359</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -7177,7 +7136,7 @@
         <v>80</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>345</v>
+        <v>80</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>80</v>
@@ -7192,13 +7151,13 @@
         <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>80</v>
+        <v>362</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>80</v>
@@ -7216,7 +7175,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>250</v>
+        <v>356</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7234,16 +7193,16 @@
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>80</v>
+        <v>363</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>252</v>
+        <v>80</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>80</v>
@@ -7254,10 +7213,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7280,20 +7239,16 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>256</v>
+        <v>365</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7341,7 +7296,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>260</v>
+        <v>364</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7356,33 +7311,33 @@
         <v>80</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>80</v>
+        <v>367</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>261</v>
+        <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>80</v>
+        <v>368</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>262</v>
+        <v>369</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ45" t="s" s="2">
-        <v>80</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7393,7 +7348,7 @@
         <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -7405,19 +7360,17 @@
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>169</v>
+        <v>371</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>265</v>
+        <v>372</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>268</v>
+        <v>374</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7466,13 +7419,13 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>269</v>
+        <v>370</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
@@ -7484,30 +7437,30 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>80</v>
+        <v>375</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>271</v>
+        <v>377</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="AQ46" t="s" s="2">
-        <v>80</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7527,16 +7480,16 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7587,7 +7540,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7599,7 +7552,7 @@
         <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
@@ -7608,27 +7561,27 @@
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>356</v>
+        <v>80</v>
       </c>
       <c r="AQ47" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7648,16 +7601,16 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>358</v>
+        <v>169</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>359</v>
+        <v>170</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>360</v>
+        <v>171</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7708,7 +7661,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>357</v>
+        <v>172</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7726,41 +7679,41 @@
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>356</v>
+        <v>80</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7769,18 +7722,20 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>362</v>
+        <v>176</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7829,13 +7784,13 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>361</v>
+        <v>179</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>80</v>
@@ -7847,61 +7802,63 @@
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>356</v>
+        <v>80</v>
       </c>
       <c r="AQ49" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>365</v>
+        <v>134</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>366</v>
+        <v>149</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -7950,13 +7907,13 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>80</v>
@@ -7965,33 +7922,33 @@
         <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>368</v>
+        <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>356</v>
+        <v>80</v>
       </c>
       <c r="AQ50" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8011,21 +7968,19 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>372</v>
-      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8049,13 +8004,13 @@
         <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>374</v>
+        <v>80</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>80</v>
@@ -8073,7 +8028,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8097,13 +8052,13 @@
         <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>80</v>
+        <v>394</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>80</v>
+        <v>395</v>
       </c>
       <c r="AQ51" t="s" s="2">
         <v>80</v>
@@ -8111,10 +8066,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8137,13 +8092,13 @@
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>293</v>
+        <v>169</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8194,7 +8149,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8209,33 +8164,33 @@
         <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>381</v>
+        <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>80</v>
+        <v>395</v>
       </c>
       <c r="AQ52" t="s" s="2">
-        <v>381</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8246,7 +8201,7 @@
         <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -8258,18 +8213,16 @@
         <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>384</v>
+        <v>169</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>387</v>
-      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8317,13 +8270,13 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>80</v>
@@ -8338,27 +8291,27 @@
         <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>389</v>
+        <v>80</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>391</v>
+        <v>80</v>
       </c>
       <c r="AQ53" t="s" s="2">
-        <v>388</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8378,16 +8331,16 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>393</v>
+        <v>169</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8438,7 +8391,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8450,7 +8403,7 @@
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>396</v>
+        <v>80</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
@@ -8465,7 +8418,7 @@
         <v>80</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>80</v>
+        <v>394</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>80</v>
@@ -8476,10 +8429,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8499,16 +8452,16 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>169</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>170</v>
+        <v>406</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>171</v>
+        <v>407</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8559,7 +8512,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>172</v>
+        <v>405</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8577,16 +8530,16 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>80</v>
+        <v>408</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>80</v>
+        <v>409</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>80</v>
@@ -8597,21 +8550,21 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
@@ -8620,20 +8573,18 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>176</v>
+        <v>411</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8682,13 +8633,13 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>179</v>
+        <v>410</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>80</v>
@@ -8700,16 +8651,16 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>80</v>
+        <v>408</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>80</v>
+        <v>409</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>80</v>
@@ -8720,43 +8671,41 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>149</v>
+        <v>414</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8805,13 +8754,13 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>80</v>
@@ -8823,7 +8772,7 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
@@ -8832,7 +8781,7 @@
         <v>80</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>80</v>
@@ -8843,10 +8792,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8872,10 +8821,10 @@
         <v>169</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8926,7 +8875,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -8950,13 +8899,13 @@
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>406</v>
+        <v>80</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>408</v>
+        <v>80</v>
       </c>
       <c r="AQ58" t="s" s="2">
         <v>80</v>
@@ -8964,10 +8913,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8993,10 +8942,10 @@
         <v>169</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9047,7 +8996,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9071,13 +9020,13 @@
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>408</v>
+        <v>80</v>
       </c>
       <c r="AQ59" t="s" s="2">
         <v>80</v>
@@ -9085,10 +9034,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9114,10 +9063,10 @@
         <v>169</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9168,7 +9117,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9192,10 +9141,10 @@
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>80</v>
+        <v>408</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>80</v>
@@ -9206,10 +9155,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9235,10 +9184,10 @@
         <v>169</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9289,7 +9238,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9313,10 +9262,10 @@
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>80</v>
+        <v>408</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>80</v>
@@ -9327,10 +9276,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9356,10 +9305,10 @@
         <v>169</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9410,7 +9359,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9434,10 +9383,10 @@
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>80</v>
@@ -9448,10 +9397,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9477,13 +9426,15 @@
         <v>169</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9531,7 +9482,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9555,10 +9506,10 @@
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>80</v>
@@ -9569,10 +9520,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9598,13 +9549,15 @@
         <v>169</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9652,7 +9605,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -9676,10 +9629,10 @@
         <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>80</v>
+        <v>442</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>80</v>
@@ -9690,10 +9643,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9716,13 +9669,13 @@
         <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>169</v>
+        <v>445</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9773,7 +9726,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -9800,7 +9753,7 @@
         <v>80</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>80</v>
@@ -9811,10 +9764,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9840,10 +9793,10 @@
         <v>169</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9894,7 +9847,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -9918,10 +9871,10 @@
         <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>421</v>
+        <v>451</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>422</v>
+        <v>80</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>80</v>
@@ -9932,10 +9885,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9946,7 +9899,7 @@
         <v>81</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
@@ -9955,16 +9908,16 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>169</v>
+        <v>453</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10015,13 +9968,13 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>80</v>
@@ -10039,871 +9992,20 @@
         <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>421</v>
+        <v>341</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>80</v>
+        <v>343</v>
       </c>
       <c r="AQ67" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AP68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ68" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AP69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ69" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="P70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AP70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ70" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="P71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AP71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ71" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AP72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ72" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ73" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AP74" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AQ74" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ74">
+  <autoFilter ref="A1:AQ67">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10913,7 +10015,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI73">
+  <conditionalFormatting sqref="A2:AI66">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
+++ b/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="456">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T22:36:34+00:00</t>
+    <t>2023-05-07T22:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -736,9 +736,6 @@
   </si>
   <si>
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://spms.min-saude.pt/rnu/identifiers/nbu</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -4434,46 +4431,46 @@
         <v>80</v>
       </c>
       <c r="S22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="T22" t="s" s="2">
+      <c r="U22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4491,16 +4488,16 @@
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>80</v>
@@ -4511,10 +4508,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4540,13 +4537,13 @@
         <v>169</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4560,43 +4557,43 @@
         <v>80</v>
       </c>
       <c r="T23" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4614,16 +4611,16 @@
         <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO23" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>80</v>
@@ -4634,10 +4631,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4660,13 +4657,13 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4717,7 +4714,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4735,16 +4732,16 @@
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO24" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>80</v>
@@ -4755,10 +4752,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4781,16 +4778,16 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4840,7 +4837,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -4858,16 +4855,16 @@
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>80</v>
@@ -4878,10 +4875,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4907,13 +4904,13 @@
         <v>108</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4942,11 +4939,11 @@
         <v>186</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="Z26" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="Z26" t="s" s="2">
-        <v>267</v>
-      </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
       </c>
@@ -4963,7 +4960,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -4978,14 +4975,14 @@
         <v>80</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AL26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>269</v>
-      </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
       </c>
@@ -4996,15 +4993,15 @@
         <v>80</v>
       </c>
       <c r="AQ26" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5030,14 +5027,14 @@
         <v>193</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -5062,14 +5059,14 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Y27" t="s" s="2">
+      <c r="Z27" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
       </c>
@@ -5086,7 +5083,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5107,27 +5104,27 @@
         <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AN27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>278</v>
-      </c>
       <c r="AP27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ27" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5245,10 +5242,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5368,10 +5365,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5443,7 +5440,7 @@
         <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
@@ -5491,13 +5488,13 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="C31" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>80</v>
@@ -5618,10 +5615,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5739,10 +5736,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5862,10 +5859,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5891,16 +5888,16 @@
         <v>102</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -5910,46 +5907,46 @@
         <v>80</v>
       </c>
       <c r="S34" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -5967,16 +5964,16 @@
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO34" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>80</v>
@@ -5987,10 +5984,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6016,13 +6013,13 @@
         <v>169</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6072,7 +6069,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6090,16 +6087,16 @@
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO35" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>80</v>
@@ -6110,10 +6107,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6139,14 +6136,14 @@
         <v>108</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6156,46 +6153,46 @@
         <v>80</v>
       </c>
       <c r="S36" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6213,16 +6210,16 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO36" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>80</v>
@@ -6233,10 +6230,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6262,14 +6259,14 @@
         <v>169</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6279,46 +6276,46 @@
         <v>80</v>
       </c>
       <c r="S37" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF37" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6336,16 +6333,16 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO37" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>80</v>
@@ -6356,10 +6353,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6382,19 +6379,19 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6443,7 +6440,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6461,16 +6458,16 @@
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO38" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>80</v>
@@ -6481,10 +6478,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6606,10 +6603,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6632,13 +6629,13 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6689,7 +6686,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6710,27 +6707,27 @@
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AO40" t="s" s="2">
+      <c r="AP40" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AP40" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="AQ40" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6753,13 +6750,13 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6810,7 +6807,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -6831,27 +6828,27 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AN41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AO41" t="s" s="2">
+      <c r="AP41" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AP41" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="AQ41" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6877,10 +6874,10 @@
         <v>169</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6931,7 +6928,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -6952,27 +6949,27 @@
         <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AN42" t="s" s="2">
+      <c r="AO42" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AO42" t="s" s="2">
+      <c r="AP42" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AP42" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="AQ42" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6995,13 +6992,13 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7052,7 +7049,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7067,33 +7064,33 @@
         <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AN43" t="s" s="2">
+      <c r="AO43" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AO43" t="s" s="2">
+      <c r="AP43" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AP43" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="AQ43" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7119,14 +7116,14 @@
         <v>193</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -7151,14 +7148,14 @@
         <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="Y44" t="s" s="2">
+      <c r="Z44" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="Z44" t="s" s="2">
-        <v>362</v>
-      </c>
       <c r="AA44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7175,7 +7172,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7199,7 +7196,7 @@
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -7213,10 +7210,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7239,13 +7236,13 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7296,7 +7293,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7311,33 +7308,33 @@
         <v>80</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AL45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO45" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AN45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>369</v>
-      </c>
       <c r="AP45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ45" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7360,17 +7357,17 @@
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7419,7 +7416,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7440,27 +7437,27 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AN46" t="s" s="2">
+      <c r="AO46" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AO46" t="s" s="2">
+      <c r="AP46" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AP46" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="AQ46" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7483,13 +7480,13 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7540,7 +7537,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7552,7 +7549,7 @@
         <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
@@ -7578,10 +7575,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7699,10 +7696,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7822,14 +7819,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7854,7 +7851,7 @@
         <v>149</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>151</v>
@@ -7907,7 +7904,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -7945,10 +7942,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7974,10 +7971,10 @@
         <v>169</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8028,7 +8025,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8052,13 +8049,13 @@
         <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AO51" t="s" s="2">
+      <c r="AP51" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="AQ51" t="s" s="2">
         <v>80</v>
@@ -8066,10 +8063,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8095,10 +8092,10 @@
         <v>169</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8149,7 +8146,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8173,13 +8170,13 @@
         <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AO52" t="s" s="2">
+      <c r="AP52" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="AQ52" t="s" s="2">
         <v>80</v>
@@ -8187,10 +8184,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8216,10 +8213,10 @@
         <v>169</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8270,7 +8267,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8297,7 +8294,7 @@
         <v>80</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>80</v>
@@ -8308,10 +8305,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8337,10 +8334,10 @@
         <v>169</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8391,7 +8388,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8418,7 +8415,7 @@
         <v>80</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>80</v>
@@ -8429,10 +8426,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8458,10 +8455,10 @@
         <v>169</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8512,7 +8509,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8536,10 +8533,10 @@
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AO55" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>80</v>
@@ -8550,10 +8547,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8579,10 +8576,10 @@
         <v>169</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8633,7 +8630,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8657,10 +8654,10 @@
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AO56" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>80</v>
@@ -8671,10 +8668,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8700,10 +8697,10 @@
         <v>169</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8754,7 +8751,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -8781,7 +8778,7 @@
         <v>80</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>80</v>
@@ -8792,10 +8789,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8821,10 +8818,10 @@
         <v>169</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8875,7 +8872,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -8902,7 +8899,7 @@
         <v>80</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>80</v>
@@ -8913,10 +8910,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8942,10 +8939,10 @@
         <v>169</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8996,7 +8993,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9020,10 +9017,10 @@
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AO59" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>80</v>
@@ -9034,10 +9031,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9063,10 +9060,10 @@
         <v>169</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9117,7 +9114,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9141,10 +9138,10 @@
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AO60" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>80</v>
@@ -9155,10 +9152,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9184,10 +9181,10 @@
         <v>169</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9238,7 +9235,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9262,10 +9259,10 @@
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AO61" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>80</v>
@@ -9276,10 +9273,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9305,10 +9302,10 @@
         <v>169</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9359,7 +9356,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9383,10 +9380,10 @@
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AO62" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>80</v>
@@ -9397,10 +9394,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9426,14 +9423,14 @@
         <v>169</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9482,7 +9479,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9506,10 +9503,10 @@
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AO63" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>80</v>
@@ -9520,10 +9517,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9549,14 +9546,14 @@
         <v>169</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9605,7 +9602,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -9629,10 +9626,10 @@
         <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AO64" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>80</v>
@@ -9643,10 +9640,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9669,13 +9666,13 @@
         <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9726,7 +9723,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -9753,7 +9750,7 @@
         <v>80</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>80</v>
@@ -9764,10 +9761,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9793,10 +9790,10 @@
         <v>169</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9847,7 +9844,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -9871,7 +9868,7 @@
         <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
@@ -9885,10 +9882,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9911,13 +9908,13 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9968,7 +9965,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -9992,13 +9989,13 @@
         <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AQ67" t="s" s="2">
         <v>80</v>

--- a/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
+++ b/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T22:59:45+00:00</t>
+    <t>2023-05-07T23:08:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
+++ b/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:08:30+00:00</t>
+    <t>2023-05-07T23:16:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
+++ b/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:16:14+00:00</t>
+    <t>2023-05-07T23:22:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
+++ b/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:22:06+00:00</t>
+    <t>2023-05-07T23:26:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
+++ b/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:26:27+00:00</t>
+    <t>2023-05-07T23:39:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
+++ b/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:39:48+00:00</t>
+    <t>2023-05-08T00:33:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
+++ b/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-08T00:33:17+00:00</t>
+    <t>2023-05-08T00:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
+++ b/branches/main/StructureDefinition-coverage-pemh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-08T00:44:39+00:00</t>
+    <t>2023-06-02T10:26:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
